--- a/downloaded_files/EEES481_Lecture-35382.xlsx
+++ b/downloaded_files/EEES481_Lecture-35382.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -288,6 +288,15 @@
     <x:t>Omar Tarek Hassan Mohamed Saad</x:t>
   </x:si>
   <x:si>
+    <x:t>1210156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد فاروق منصور الروينى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohammed ELReweny</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210022</x:t>
   </x:si>
   <x:si>
@@ -382,6 +391,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed Monir Elsayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسامه عبدالسلام السيد مصلحى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Osama</x:t>
   </x:si>
   <x:si>
     <x:t>1200459</x:t>
@@ -515,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -815,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T45"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -825,7 +843,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.920625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1830,7 +1848,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4492952546</x:v>
+        <x:v>45919.6707730324</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1862,7 +1880,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4492952546</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1894,7 +1912,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4204576042</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1926,7 +1944,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4199458681</x:v>
+        <x:v>45906.4204576042</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1958,7 +1976,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6685605671</x:v>
+        <x:v>45906.4199458681</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1986,9 +2004,11 @@
       <x:c r="C36" s="2" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s"/>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6685605671</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2011,16 +2031,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
+      <x:c r="D37" s="2" t="s"/>
       <x:c r="E37" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2052,7 +2070,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2084,7 +2102,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2116,7 +2134,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2148,7 +2166,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4191731134</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2180,7 +2198,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45906.4191731134</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2212,7 +2230,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45919.6707730324</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2229,6 +2247,70 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45909.5512003472</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:20">
+      <x:c r="A45" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D45" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E45" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F45" s="2" t="s"/>
+      <x:c r="G45" s="2" t="s"/>
+      <x:c r="H45" s="2" t="s"/>
+      <x:c r="I45" s="2" t="s"/>
+      <x:c r="J45" s="2" t="s"/>
+      <x:c r="K45" s="2" t="s"/>
+      <x:c r="L45" s="2" t="s"/>
+      <x:c r="M45" s="2" t="s"/>
+      <x:c r="N45" s="2" t="s"/>
+      <x:c r="O45" s="2" t="s"/>
+      <x:c r="P45" s="2" t="s"/>
+      <x:c r="Q45" s="2" t="s"/>
+      <x:c r="R45" s="2" t="s"/>
+      <x:c r="S45" s="2" t="s"/>
+      <x:c r="T45" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EEES481_Lecture-35382.xlsx
+++ b/downloaded_files/EEES481_Lecture-35382.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Ayman Abdelhamid Abdelaziz Wahdan</x:t>
   </x:si>
   <x:si>
+    <x:t>1200087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد صالح احمد محمود احمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed saleh ahmed mahmoud</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210123</x:t>
   </x:si>
   <x:si>
@@ -93,6 +102,15 @@
     <x:t>Amer Ashraf Essa</x:t>
   </x:si>
   <x:si>
+    <x:t>1210203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انجي محمود مصطفي محمود عمر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ingy Mahmoud Moustafa Mahmoud Omar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210131</x:t>
   </x:si>
   <x:si>
@@ -324,6 +342,15 @@
     <x:t>Mahmoud hamdy awad elsayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود مصطفى محمد على حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud mostafa mohamed aly</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210114</x:t>
   </x:si>
   <x:si>
@@ -373,6 +400,15 @@
   </x:si>
   <x:si>
     <x:t>Menna Tullah Hany Basem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ميار طارق سيد سعد عبدالمحسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mayar tarek said saad</x:t>
   </x:si>
   <x:si>
     <x:t>1210089</x:t>
@@ -533,7 +569,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E45" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +869,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T45"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -956,7 +992,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4148383449</x:v>
+        <x:v>45926.5871512384</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -988,7 +1024,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6845489236</x:v>
+        <x:v>45906.4148383449</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1020,7 +1056,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4149104167</x:v>
+        <x:v>45906.6845489236</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1048,9 +1084,11 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.5933545486</x:v>
+        <x:v>45906.4149104167</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1073,16 +1111,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45906.6672886574</x:v>
+        <x:v>45906.5933545486</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1114,7 +1150,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6653541667</x:v>
+        <x:v>45906.6672886574</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1146,7 +1182,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4145330208</x:v>
+        <x:v>45906.6653541667</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1178,7 +1214,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45926.5871512384</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1210,7 +1246,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4195042477</x:v>
+        <x:v>45906.4145330208</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1242,7 +1278,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1274,7 +1310,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6660893171</x:v>
+        <x:v>45906.4195042477</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1306,7 +1342,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4576988426</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1338,7 +1374,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6646109954</x:v>
+        <x:v>45906.6660893171</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1370,7 +1406,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4576988426</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1402,7 +1438,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.665531713</x:v>
+        <x:v>45906.6646109954</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1434,7 +1470,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1466,7 +1502,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.665531713</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1498,7 +1534,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6645693634</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1530,7 +1566,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1562,7 +1598,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4499208333</x:v>
+        <x:v>45906.6645693634</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1590,9 +1626,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.4142920486</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1615,16 +1653,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.414803044</x:v>
+        <x:v>45906.4499208333</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1647,16 +1685,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45909.4829779282</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1688,7 +1724,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.414803044</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1720,7 +1756,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4155153125</x:v>
+        <x:v>45909.4829779282</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1752,7 +1788,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.5644183218</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1784,7 +1820,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45906.4155153125</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1816,7 +1852,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4183537384</x:v>
+        <x:v>45906.5644183218</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1848,7 +1884,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45919.6707730324</x:v>
+        <x:v>45906.6647546296</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1880,7 +1916,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4492952546</x:v>
+        <x:v>45906.4183537384</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1912,7 +1948,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45919.6707730324</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1944,7 +1980,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4204576042</x:v>
+        <x:v>45906.4492952546</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1976,7 +2012,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4199458681</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2008,7 +2044,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6685605671</x:v>
+        <x:v>45906.4204576042</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2036,9 +2072,11 @@
       <x:c r="C37" s="2" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s"/>
+      <x:c r="D37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45926.5871512384</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2061,16 +2099,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4199458681</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2093,16 +2131,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.6685605671</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2125,16 +2163,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
+      <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2166,7 +2202,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2198,7 +2234,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4191731134</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2230,7 +2266,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45919.6707730324</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2262,7 +2298,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45926.5871512384</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2294,7 +2330,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6644524306</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2311,6 +2347,134 @@
       <x:c r="R45" s="2" t="s"/>
       <x:c r="S45" s="2" t="s"/>
       <x:c r="T45" s="2" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:20">
+      <x:c r="A46" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="D46" s="2" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="E46" s="3">
+        <x:v>45906.4191731134</x:v>
+      </x:c>
+      <x:c r="F46" s="2" t="s"/>
+      <x:c r="G46" s="2" t="s"/>
+      <x:c r="H46" s="2" t="s"/>
+      <x:c r="I46" s="2" t="s"/>
+      <x:c r="J46" s="2" t="s"/>
+      <x:c r="K46" s="2" t="s"/>
+      <x:c r="L46" s="2" t="s"/>
+      <x:c r="M46" s="2" t="s"/>
+      <x:c r="N46" s="2" t="s"/>
+      <x:c r="O46" s="2" t="s"/>
+      <x:c r="P46" s="2" t="s"/>
+      <x:c r="Q46" s="2" t="s"/>
+      <x:c r="R46" s="2" t="s"/>
+      <x:c r="S46" s="2" t="s"/>
+      <x:c r="T46" s="2" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:20">
+      <x:c r="A47" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="D47" s="2" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="E47" s="3">
+        <x:v>45919.6707730324</x:v>
+      </x:c>
+      <x:c r="F47" s="2" t="s"/>
+      <x:c r="G47" s="2" t="s"/>
+      <x:c r="H47" s="2" t="s"/>
+      <x:c r="I47" s="2" t="s"/>
+      <x:c r="J47" s="2" t="s"/>
+      <x:c r="K47" s="2" t="s"/>
+      <x:c r="L47" s="2" t="s"/>
+      <x:c r="M47" s="2" t="s"/>
+      <x:c r="N47" s="2" t="s"/>
+      <x:c r="O47" s="2" t="s"/>
+      <x:c r="P47" s="2" t="s"/>
+      <x:c r="Q47" s="2" t="s"/>
+      <x:c r="R47" s="2" t="s"/>
+      <x:c r="S47" s="2" t="s"/>
+      <x:c r="T47" s="2" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:20">
+      <x:c r="A48" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="C48" s="2" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="D48" s="2" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="E48" s="3">
+        <x:v>45909.5512003472</x:v>
+      </x:c>
+      <x:c r="F48" s="2" t="s"/>
+      <x:c r="G48" s="2" t="s"/>
+      <x:c r="H48" s="2" t="s"/>
+      <x:c r="I48" s="2" t="s"/>
+      <x:c r="J48" s="2" t="s"/>
+      <x:c r="K48" s="2" t="s"/>
+      <x:c r="L48" s="2" t="s"/>
+      <x:c r="M48" s="2" t="s"/>
+      <x:c r="N48" s="2" t="s"/>
+      <x:c r="O48" s="2" t="s"/>
+      <x:c r="P48" s="2" t="s"/>
+      <x:c r="Q48" s="2" t="s"/>
+      <x:c r="R48" s="2" t="s"/>
+      <x:c r="S48" s="2" t="s"/>
+      <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45906.6644524306</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EEES481_Lecture-35382.xlsx
+++ b/downloaded_files/EEES481_Lecture-35382.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -340,15 +340,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud hamdy awad elsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210296</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مصطفى محمد على حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud mostafa mohamed aly</x:t>
   </x:si>
   <x:si>
     <x:t>1210114</x:t>
@@ -569,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2076,7 +2067,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45926.5871512384</x:v>
+        <x:v>45906.4199458681</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4199458681</x:v>
+        <x:v>45906.6685605671</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2136,11 +2127,9 @@
       <x:c r="C39" s="2" t="s">
         <x:v>115</x:v>
       </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
+      <x:c r="D39" s="2" t="s"/>
       <x:c r="E39" s="3">
-        <x:v>45906.6685605671</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2163,14 +2152,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="C40" s="2" t="s">
+      <x:c r="D40" s="2" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="D40" s="2" t="s"/>
       <x:c r="E40" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.4752753125</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2202,7 +2193,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4752753125</x:v>
+        <x:v>45906.4265391551</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2234,7 +2225,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4265391551</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2266,7 +2257,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45926.5871512384</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2298,7 +2289,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45926.5871512384</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2330,7 +2321,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4191731134</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2362,7 +2353,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4191731134</x:v>
+        <x:v>45919.6707730324</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2394,7 +2385,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45919.6707730324</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2426,7 +2417,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45906.6644524306</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2443,38 +2434,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45906.6644524306</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
